--- a/input/LINCS/drug_mapping_curated.xlsx
+++ b/input/LINCS/drug_mapping_curated.xlsx
@@ -15,18 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="176">
-  <si>
-    <t>LINCSDrug</t>
-  </si>
-  <si>
-    <t>DREAMDrug</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>AS601245</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="223">
+  <si>
+    <t>SM_Name</t>
+  </si>
+  <si>
+    <t>DREAM_ID</t>
+  </si>
+  <si>
+    <t>Primary_Target</t>
+  </si>
+  <si>
+    <t>AlternativeNames</t>
+  </si>
+  <si>
+    <t>PubChemCID</t>
+  </si>
+  <si>
+    <t>ChEMBLID</t>
+  </si>
+  <si>
+    <t>Sigma A6730</t>
   </si>
   <si>
     <t>AKT</t>
@@ -35,511 +44,643 @@
     <t>AKT1</t>
   </si>
   <si>
-    <t>Dovitinib</t>
-  </si>
-  <si>
-    <t>KIN001-242</t>
-  </si>
-  <si>
-    <t>KIN001-266</t>
-  </si>
-  <si>
-    <t>OTSSP167</t>
-  </si>
-  <si>
-    <t>Selumetinib</t>
+    <t>KIN001-102;;AKT inhibitor VIII;Akt1/2 kinase inhibitor</t>
+  </si>
+  <si>
+    <t>GSK 690693</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>A443654</t>
+  </si>
+  <si>
+    <t>AT7867</t>
+  </si>
+  <si>
+    <t>GDC-0068</t>
+  </si>
+  <si>
+    <t>MK2206</t>
+  </si>
+  <si>
+    <t>Triciribine</t>
+  </si>
+  <si>
+    <t>AKT_1</t>
+  </si>
+  <si>
+    <t>AKT_PIK3C</t>
+  </si>
+  <si>
+    <t>AKT_SGK</t>
+  </si>
+  <si>
+    <t>HG-14-10-04</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>NVP-TAE684</t>
+  </si>
+  <si>
+    <t>CH5424802</t>
+  </si>
+  <si>
+    <t>ALK_2</t>
+  </si>
+  <si>
+    <t>ALK_IGFR</t>
+  </si>
+  <si>
+    <t>MET_ALK</t>
+  </si>
+  <si>
+    <t>KU-60019</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>KU55933</t>
+  </si>
+  <si>
+    <t>CP466722</t>
+  </si>
+  <si>
+    <t>ABT-737</t>
+  </si>
+  <si>
+    <t>BCL2</t>
+  </si>
+  <si>
+    <t>BCL2_2</t>
+  </si>
+  <si>
+    <t>BCL2_3</t>
+  </si>
+  <si>
+    <t>BCL2_BCL2L1</t>
+  </si>
+  <si>
+    <t>BCL2_BCL2L1_BCL2L2</t>
+  </si>
+  <si>
+    <t>Docetaxel</t>
+  </si>
+  <si>
+    <t>SB590885</t>
+  </si>
+  <si>
+    <t>BRAF_2</t>
+  </si>
+  <si>
+    <t>BRAF</t>
+  </si>
+  <si>
+    <t>PLX4032</t>
+  </si>
+  <si>
+    <t>RG7204;R7204;RO5185426</t>
+  </si>
+  <si>
+    <t>Sorafenib</t>
+  </si>
+  <si>
+    <t>BAY-439006</t>
+  </si>
+  <si>
+    <t>GDC-0879</t>
+  </si>
+  <si>
+    <t>RAF 265</t>
+  </si>
+  <si>
+    <t>CHIR-265</t>
+  </si>
+  <si>
+    <t>L-779450</t>
+  </si>
+  <si>
+    <t>PLX-4720</t>
+  </si>
+  <si>
+    <t>AZ-628</t>
+  </si>
+  <si>
+    <t>Dabrafenib</t>
+  </si>
+  <si>
+    <t>GSK2118436</t>
+  </si>
+  <si>
+    <t>BRAF_M</t>
+  </si>
+  <si>
+    <t>BRAF_M2</t>
+  </si>
+  <si>
+    <t>BRAF_VEGFR2</t>
+  </si>
+  <si>
+    <t>MAP2K_RAF</t>
+  </si>
+  <si>
+    <t>TCS 2312</t>
+  </si>
+  <si>
+    <t>CHK1</t>
+  </si>
+  <si>
+    <t>AZD7762</t>
+  </si>
+  <si>
+    <t>PF477736</t>
+  </si>
+  <si>
+    <t>Decitabine</t>
+  </si>
+  <si>
+    <t>Doxorubicin</t>
+  </si>
+  <si>
+    <t>DNMT1</t>
+  </si>
+  <si>
+    <t>5-aza-2-deoxycytidine, Dacogen, DAC</t>
+  </si>
+  <si>
+    <t>Azacitidine</t>
+  </si>
+  <si>
+    <t>5-azacytidine, Vidaza, AZA</t>
+  </si>
+  <si>
+    <t>RG-108</t>
+  </si>
+  <si>
+    <t>AST1306</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>Lapatinib</t>
+  </si>
+  <si>
+    <t>GW-572016;Tykerb</t>
+  </si>
+  <si>
+    <t>Pelitinib</t>
+  </si>
+  <si>
+    <t>EKB-569</t>
+  </si>
+  <si>
+    <t>AG1478</t>
+  </si>
+  <si>
+    <t>Tyrphostin</t>
+  </si>
+  <si>
+    <t>Gefitinib</t>
+  </si>
+  <si>
+    <t>ZD1839;Iressa</t>
+  </si>
+  <si>
+    <t>Dacomitinib</t>
+  </si>
+  <si>
+    <t>PF-00299804</t>
+  </si>
+  <si>
+    <t>HG-5-88-01</t>
+  </si>
+  <si>
+    <t>HG-14-8-02</t>
+  </si>
+  <si>
+    <t>Canertinib</t>
+  </si>
+  <si>
+    <t>CI-1033;PD-183805</t>
+  </si>
+  <si>
+    <t>WZ4002</t>
+  </si>
+  <si>
+    <t>Erlotinib</t>
+  </si>
+  <si>
+    <t>OSI-774</t>
+  </si>
+  <si>
+    <t>EGFR_2</t>
+  </si>
+  <si>
+    <t>ERBB</t>
+  </si>
+  <si>
+    <t>TKI</t>
+  </si>
+  <si>
+    <t>Afatinib</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
+    <t>BIBW-2992</t>
+  </si>
+  <si>
+    <t>CP724714</t>
+  </si>
+  <si>
+    <t>Neratinib</t>
+  </si>
+  <si>
+    <t>HKI-272</t>
+  </si>
+  <si>
+    <t>(Z)-4-Hydroxytamoxifen</t>
+  </si>
+  <si>
+    <t>ESR1</t>
+  </si>
+  <si>
+    <t>ESR1_1</t>
+  </si>
+  <si>
+    <t>ESR1_2</t>
+  </si>
+  <si>
+    <t>ESR1_3</t>
+  </si>
+  <si>
+    <t>PD173074</t>
+  </si>
+  <si>
+    <t>FGFR</t>
+  </si>
+  <si>
+    <t>FGFR1</t>
+  </si>
+  <si>
+    <t>BGJ398</t>
+  </si>
+  <si>
+    <t>KIN001-271;NVP-BGJ398</t>
+  </si>
+  <si>
+    <t>AZD4547</t>
+  </si>
+  <si>
+    <t>Entinostat</t>
+  </si>
+  <si>
+    <t>HDAC_4</t>
+  </si>
+  <si>
+    <t>HDAC1</t>
+  </si>
+  <si>
+    <t>MS-275;MS-27-275</t>
+  </si>
+  <si>
+    <t>Belinostat</t>
+  </si>
+  <si>
+    <t>PXD101</t>
+  </si>
+  <si>
+    <t>Mocetinostat</t>
+  </si>
+  <si>
+    <t>MGCD0103</t>
+  </si>
+  <si>
+    <t>LBH589</t>
+  </si>
+  <si>
+    <t>Panobinostat</t>
+  </si>
+  <si>
+    <t>Pracinostat</t>
+  </si>
+  <si>
+    <t>SB939</t>
+  </si>
+  <si>
+    <t>Oxamflatin</t>
   </si>
   <si>
     <t>Trichostatin A</t>
   </si>
   <si>
-    <t>AKT_1</t>
-  </si>
-  <si>
-    <t>AKT_PIK3C</t>
-  </si>
-  <si>
-    <t>AKT_SGK</t>
-  </si>
-  <si>
-    <t>HG-14-8-02</t>
-  </si>
-  <si>
-    <t>ALK</t>
-  </si>
-  <si>
-    <t>Imatinib</t>
-  </si>
-  <si>
-    <t>NVP-BHG712</t>
-  </si>
-  <si>
-    <t>ALK_2</t>
-  </si>
-  <si>
-    <t>ALK_IGFR</t>
-  </si>
-  <si>
-    <t>MET_ALK</t>
-  </si>
-  <si>
-    <t>AT7867</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>PHA-793887</t>
-  </si>
-  <si>
-    <t>Sorafenib</t>
-  </si>
-  <si>
-    <t>OSI-930</t>
-  </si>
-  <si>
-    <t>BCL2</t>
-  </si>
-  <si>
-    <t>BCL2_2</t>
-  </si>
-  <si>
-    <t>BCL2_3</t>
-  </si>
-  <si>
-    <t>BCL2_BCL2L1</t>
-  </si>
-  <si>
-    <t>BCL2_BCL2L1_BCL2L2</t>
-  </si>
-  <si>
-    <t>Docetaxel</t>
-  </si>
-  <si>
-    <t>A443654</t>
-  </si>
-  <si>
-    <t>BRAF_2</t>
-  </si>
-  <si>
-    <t>BRAF</t>
-  </si>
-  <si>
-    <t>AZD1152-HQPA</t>
-  </si>
-  <si>
-    <t>AZD8055</t>
-  </si>
-  <si>
-    <t>CHIR-99021</t>
-  </si>
-  <si>
-    <t>INK-128</t>
-  </si>
-  <si>
-    <t>Ixabepilone</t>
-  </si>
-  <si>
-    <t>PD184352</t>
-  </si>
-  <si>
-    <t>PLX-4720</t>
-  </si>
-  <si>
-    <t>XRP44X</t>
-  </si>
-  <si>
-    <t>BRAF_M</t>
-  </si>
-  <si>
-    <t>BRAF_M2</t>
-  </si>
-  <si>
-    <t>BRAF_VEGFR2</t>
-  </si>
-  <si>
-    <t>MAP2K_RAF</t>
-  </si>
-  <si>
-    <t>(Z)-4-Hydroxytamoxifen</t>
-  </si>
-  <si>
-    <t>CHK1</t>
-  </si>
-  <si>
-    <t>Tivozanib</t>
-  </si>
-  <si>
-    <t>TWS119</t>
-  </si>
-  <si>
-    <t>Azacitidine</t>
-  </si>
-  <si>
-    <t>Doxorubicin</t>
-  </si>
-  <si>
-    <t>DNMT1</t>
-  </si>
-  <si>
-    <t>AZD4547</t>
-  </si>
-  <si>
-    <t>Decitabine</t>
-  </si>
-  <si>
-    <t>AG1478</t>
-  </si>
-  <si>
-    <t>EGFR</t>
-  </si>
-  <si>
-    <t>AZ-628</t>
-  </si>
-  <si>
-    <t>AZD 5438</t>
-  </si>
-  <si>
-    <t>Dacomitinib</t>
-  </si>
-  <si>
-    <t>Erlotinib</t>
-  </si>
-  <si>
-    <t>GSK2334470</t>
-  </si>
-  <si>
-    <t>HG-5-113-01</t>
-  </si>
-  <si>
-    <t>HG-9-91-01</t>
-  </si>
-  <si>
-    <t>SU11274</t>
-  </si>
-  <si>
-    <t>WZ3105</t>
-  </si>
-  <si>
-    <t>ZM-447439</t>
-  </si>
-  <si>
-    <t>EGFR_2</t>
-  </si>
-  <si>
-    <t>ERBB</t>
-  </si>
-  <si>
-    <t>TKI</t>
-  </si>
-  <si>
-    <t>BMS-387032</t>
-  </si>
-  <si>
-    <t>ERBB2</t>
-  </si>
-  <si>
-    <t>CP466722</t>
-  </si>
-  <si>
-    <t>HG-6-64-01</t>
-  </si>
-  <si>
-    <t>SB-3CT</t>
-  </si>
-  <si>
-    <t>ESR1</t>
-  </si>
-  <si>
-    <t>ESR1_1</t>
-  </si>
-  <si>
-    <t>ESR1_2</t>
-  </si>
-  <si>
-    <t>ESR1_3</t>
-  </si>
-  <si>
-    <t>CGP60474</t>
-  </si>
-  <si>
-    <t>FGFR</t>
-  </si>
-  <si>
-    <t>FGFR1</t>
-  </si>
-  <si>
-    <t>Linifanib</t>
+    <t>Vorinostat</t>
+  </si>
+  <si>
+    <t>suberoylanilide hydroxamic acid (SAHA), Zolinza</t>
+  </si>
+  <si>
+    <t>HDAC1_HDAC3</t>
+  </si>
+  <si>
+    <t>MC1568</t>
+  </si>
+  <si>
+    <t>HDAC4</t>
+  </si>
+  <si>
+    <t>Rocilinostat</t>
+  </si>
+  <si>
+    <t>HDAC6</t>
+  </si>
+  <si>
+    <t>ACY-1215</t>
+  </si>
+  <si>
+    <t>AG1024</t>
+  </si>
+  <si>
+    <t>IGF1R</t>
+  </si>
+  <si>
+    <t>Tyrphostin AG 1024</t>
+  </si>
+  <si>
+    <t>GSK1904529A</t>
+  </si>
+  <si>
+    <t>GSK1838705</t>
+  </si>
+  <si>
+    <t>Linsitinib</t>
+  </si>
+  <si>
+    <t>OSI 906</t>
+  </si>
+  <si>
+    <t>NVP-AEW541</t>
+  </si>
+  <si>
+    <t>AEW541</t>
+  </si>
+  <si>
+    <t>IGFR_2</t>
+  </si>
+  <si>
+    <t>IGFR_3</t>
+  </si>
+  <si>
+    <t>IGFR_4</t>
+  </si>
+  <si>
+    <t>CYT387</t>
+  </si>
+  <si>
+    <t>JAK</t>
+  </si>
+  <si>
+    <t>JAK1</t>
+  </si>
+  <si>
+    <t>Momelotinib</t>
+  </si>
+  <si>
+    <t>Ruxolitinib</t>
+  </si>
+  <si>
+    <t>TG 101348</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>Lestaurtinib</t>
+  </si>
+  <si>
+    <t>CEP-701</t>
+  </si>
+  <si>
+    <t>AZD-1480</t>
+  </si>
+  <si>
+    <t>Ispinesib</t>
+  </si>
+  <si>
+    <t>EG5</t>
+  </si>
+  <si>
+    <t>KIF11</t>
+  </si>
+  <si>
+    <t>Olaparib</t>
+  </si>
+  <si>
+    <t>PARP1</t>
+  </si>
+  <si>
+    <t>AZD2281;KU-0059436</t>
+  </si>
+  <si>
+    <t>Rucaparib</t>
+  </si>
+  <si>
+    <t>AG014699, PF-01367338</t>
+  </si>
+  <si>
+    <t>Veliparib</t>
+  </si>
+  <si>
+    <t>ABT-888</t>
+  </si>
+  <si>
+    <t>Iniparib</t>
+  </si>
+  <si>
+    <t>BSI 201</t>
+  </si>
+  <si>
+    <t>PARP1_2</t>
+  </si>
+  <si>
+    <t>BYL719</t>
+  </si>
+  <si>
+    <t>PIK3C</t>
+  </si>
+  <si>
+    <t>PIK3CA</t>
+  </si>
+  <si>
+    <t>Alpelisib</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>NVP-BKM120</t>
+  </si>
+  <si>
+    <t>XL147</t>
+  </si>
+  <si>
+    <t>SAR245408</t>
+  </si>
+  <si>
+    <t>PI103</t>
+  </si>
+  <si>
+    <t>ZSTK474</t>
+  </si>
+  <si>
+    <t>GDC-0941</t>
+  </si>
+  <si>
+    <t>GSK1059615</t>
+  </si>
+  <si>
+    <t>GSK2126458</t>
+  </si>
+  <si>
+    <t>PIK3C_2</t>
+  </si>
+  <si>
+    <t>PIK3C_MTOR</t>
+  </si>
+  <si>
+    <t>PIK3C_MTOR_2</t>
+  </si>
+  <si>
+    <t>PIK3CA_2</t>
+  </si>
+  <si>
+    <t>PIK3CA_3</t>
+  </si>
+  <si>
+    <t>PIK3CA_4</t>
+  </si>
+  <si>
+    <t>AZD-6482</t>
+  </si>
+  <si>
+    <t>PIK3CB</t>
+  </si>
+  <si>
+    <t>KIN001-193</t>
+  </si>
+  <si>
+    <t>TGX221</t>
+  </si>
+  <si>
+    <t>PIK3CB_PIK3CD</t>
+  </si>
+  <si>
+    <t>CAL-101</t>
+  </si>
+  <si>
+    <t>PI3KCD</t>
+  </si>
+  <si>
+    <t>PIK3CD</t>
+  </si>
+  <si>
+    <t>AS-252424</t>
+  </si>
+  <si>
+    <t>PIK3CG</t>
+  </si>
+  <si>
+    <t>PIK-93</t>
+  </si>
+  <si>
+    <t>AS605240</t>
   </si>
   <si>
     <t>SGI-1776</t>
   </si>
   <si>
-    <t>Belinostat</t>
-  </si>
-  <si>
-    <t>HDAC_4</t>
-  </si>
-  <si>
-    <t>HDAC1</t>
-  </si>
-  <si>
-    <t>CTB</t>
-  </si>
-  <si>
-    <t>Entinostat</t>
-  </si>
-  <si>
-    <t>L-779450</t>
-  </si>
-  <si>
-    <t>Mocetinostat</t>
-  </si>
-  <si>
-    <t>Nutlin 3a</t>
+    <t>PIM1</t>
+  </si>
+  <si>
+    <t>BAY61-3606</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>R406</t>
+  </si>
+  <si>
+    <t>Kin236</t>
+  </si>
+  <si>
+    <t>TKI_2</t>
+  </si>
+  <si>
+    <t>TIE2</t>
+  </si>
+  <si>
+    <t>Tie2 kinase inhibitor</t>
+  </si>
+  <si>
+    <t>CPT-11</t>
+  </si>
+  <si>
+    <t>TOP1</t>
+  </si>
+  <si>
+    <t>Irinotecan</t>
   </si>
   <si>
     <t>Topotecan</t>
   </si>
   <si>
+    <t>Hycamtin</t>
+  </si>
+  <si>
+    <t>SN38</t>
+  </si>
+  <si>
+    <t>TOP2A</t>
+  </si>
+  <si>
+    <t>Adriamycin</t>
+  </si>
+  <si>
+    <t>Epirubicin</t>
+  </si>
+  <si>
+    <t>Ellence</t>
+  </si>
+  <si>
+    <t>Etoposide</t>
+  </si>
+  <si>
+    <t>ICRF-193</t>
+  </si>
+  <si>
+    <t>TOP2</t>
+  </si>
+  <si>
+    <t>TOP2_2</t>
+  </si>
+  <si>
     <t>Vinorelbine</t>
   </si>
   <si>
-    <t>HDAC1_HDAC3</t>
-  </si>
-  <si>
-    <t>Pracinostat</t>
-  </si>
-  <si>
-    <t>HDAC4</t>
-  </si>
-  <si>
-    <t>MC1568</t>
-  </si>
-  <si>
-    <t>HDAC6</t>
-  </si>
-  <si>
-    <t>5-FU</t>
-  </si>
-  <si>
-    <t>IGF1R</t>
-  </si>
-  <si>
-    <t>Afatinib</t>
-  </si>
-  <si>
-    <t>Glycyl-H-1152</t>
-  </si>
-  <si>
-    <t>GSK1904529A</t>
-  </si>
-  <si>
-    <t>SB525334</t>
-  </si>
-  <si>
-    <t>IGFR_2</t>
-  </si>
-  <si>
-    <t>IGFR_3</t>
-  </si>
-  <si>
-    <t>IGFR_4</t>
-  </si>
-  <si>
-    <t>AZD-1480</t>
-  </si>
-  <si>
-    <t>JAK</t>
-  </si>
-  <si>
-    <t>JAK1</t>
-  </si>
-  <si>
-    <t>BMS509744</t>
-  </si>
-  <si>
-    <t>CYT387</t>
-  </si>
-  <si>
-    <t>JAK2</t>
-  </si>
-  <si>
-    <t>KU63794</t>
-  </si>
-  <si>
-    <t>Ruxolitinib</t>
-  </si>
-  <si>
-    <t>ICRF-193</t>
-  </si>
-  <si>
-    <t>EG5</t>
-  </si>
-  <si>
-    <t>KIF11</t>
-  </si>
-  <si>
-    <t>BMS 777607</t>
-  </si>
-  <si>
-    <t>PARP1</t>
-  </si>
-  <si>
-    <t>Iniparib</t>
-  </si>
-  <si>
-    <t>Olaparib</t>
-  </si>
-  <si>
-    <t>RG-108</t>
-  </si>
-  <si>
-    <t>PARP1_2</t>
-  </si>
-  <si>
-    <t>BEZ235</t>
-  </si>
-  <si>
-    <t>PIK3C</t>
-  </si>
-  <si>
-    <t>PIK3CA</t>
-  </si>
-  <si>
-    <t>D 4476</t>
-  </si>
-  <si>
-    <t>GSK2126458</t>
-  </si>
-  <si>
-    <t>NVP-BKM120</t>
-  </si>
-  <si>
-    <t>PHA-665752</t>
-  </si>
-  <si>
-    <t>Rapamycin</t>
-  </si>
-  <si>
-    <t>SB590885</t>
-  </si>
-  <si>
-    <t>TGX221</t>
-  </si>
-  <si>
-    <t>Veliparib</t>
-  </si>
-  <si>
-    <t>PIK3C_2</t>
-  </si>
-  <si>
-    <t>PIK3C_MTOR</t>
-  </si>
-  <si>
-    <t>PIK3C_MTOR_2</t>
-  </si>
-  <si>
-    <t>PIK3CA_2</t>
-  </si>
-  <si>
-    <t>PIK3CA_3</t>
-  </si>
-  <si>
-    <t>PIK3CA_4</t>
-  </si>
-  <si>
-    <t>CG-930</t>
-  </si>
-  <si>
-    <t>PIK3CB</t>
-  </si>
-  <si>
-    <t>JNJ 26854165</t>
-  </si>
-  <si>
-    <t>PIK3CB_PIK3CD</t>
-  </si>
-  <si>
-    <t>A66</t>
-  </si>
-  <si>
-    <t>PI3KCD</t>
-  </si>
-  <si>
-    <t>PIK3CD</t>
-  </si>
-  <si>
-    <t>AG1024</t>
-  </si>
-  <si>
-    <t>PIK3CG</t>
-  </si>
-  <si>
-    <t>Bosutinib</t>
-  </si>
-  <si>
-    <t>ZSTK474</t>
-  </si>
-  <si>
-    <t>Dinaciclib</t>
-  </si>
-  <si>
-    <t>PIM1</t>
-  </si>
-  <si>
-    <t>PF04217903</t>
-  </si>
-  <si>
-    <t>SYK</t>
-  </si>
-  <si>
-    <t>WH-4-025</t>
-  </si>
-  <si>
-    <t>KW2449</t>
-  </si>
-  <si>
-    <t>TKI_2</t>
-  </si>
-  <si>
-    <t>TIE2</t>
-  </si>
-  <si>
-    <t>CGC-11144</t>
-  </si>
-  <si>
-    <t>TOP1</t>
-  </si>
-  <si>
-    <t>Temsirolimus</t>
-  </si>
-  <si>
-    <t>SN38</t>
-  </si>
-  <si>
-    <t>TOP2A</t>
-  </si>
-  <si>
-    <t>Epirubicin</t>
-  </si>
-  <si>
-    <t>Ibandronate</t>
-  </si>
-  <si>
-    <t>TOP2</t>
-  </si>
-  <si>
-    <t>TOP2_2</t>
-  </si>
-  <si>
-    <t>Triciribine</t>
-  </si>
-  <si>
     <t>TUBB1</t>
   </si>
   <si>
-    <t>BIBF-1120</t>
+    <t>Navelbine</t>
+  </si>
+  <si>
+    <t>MK 1775</t>
   </si>
   <si>
     <t>WEE1</t>
@@ -557,6 +698,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -627,8 +769,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -652,18 +794,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,3602 +821,5957 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10196499</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>258844</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>16048642</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10172943</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>379300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
+      <c r="E5" s="1" t="n">
+        <v>11175137</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>24788740</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>24964624</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>65399</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>10196499</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>258844</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>16048642</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>10172943</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>379300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
+      <c r="E12" s="1" t="n">
+        <v>11175137</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>24788740</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>24964624</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>65399</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>10196499</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>258844</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>16048642</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>10172943</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>379300</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>5</v>
+      <c r="E19" s="1" t="n">
+        <v>11175137</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>24788740</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>24964624</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>65399</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>10196499</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>258844</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>16048642</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>10172943</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>379300</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>5</v>
+      <c r="E26" s="1" t="n">
+        <v>11175137</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>24788740</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>24964624</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>65399</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>56655374</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
+      <c r="A31" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>16038120</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>509032</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>49806720</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>56655374</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>16038120</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>509032</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>49806720</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>56655374</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>16038120</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>509032</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>49806720</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>16</v>
+      <c r="E39" s="1" t="n">
+        <v>56655374</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>16</v>
+      <c r="E40" s="1" t="n">
+        <v>16038120</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>509032</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>16</v>
+      <c r="E41" s="1" t="n">
+        <v>49806720</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>16117018</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>5278396</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
+      <c r="A44" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>44551660</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>27</v>
+      <c r="E50" s="1" t="n">
+        <v>11228183</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>53239990</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>42611257</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>216239</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>57519545</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C55" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>11656518</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>35</v>
+      <c r="E56" s="1" t="n">
+        <v>9950176</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>24180719</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>11676786</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>44462760</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>53239990</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>42611257</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>35</v>
+      <c r="E62" s="1" t="n">
+        <v>216239</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>57519545</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>11656518</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>35</v>
+      <c r="E65" s="1" t="n">
+        <v>9950176</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>24180719</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>11676786</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>44462760</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>53239990</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>42611257</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>216239</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>57519545</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>11656518</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>35</v>
+      <c r="E74" s="1" t="n">
+        <v>9950176</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>24180719</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>11676786</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>44462760</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>53239990</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>42611257</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>216239</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>57519545</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>11656518</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>35</v>
+      <c r="E83" s="1" t="n">
+        <v>9950176</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>24180719</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>11676786</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>44462760</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>53239990</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>42611257</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>216239</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>57519545</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>35</v>
+      <c r="E91" s="1" t="n">
+        <v>11656518</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>35</v>
+      <c r="E92" s="1" t="n">
+        <v>9950176</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>24180719</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>11676786</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>44462760</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>11258443</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>50</v>
+      <c r="A97" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>67077825</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>16750408</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>52</v>
+      <c r="A99" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>451668</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>9444</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>56</v>
+      <c r="A101" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>702558</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>24739943</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>208908</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>216467</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>61</v>
+      <c r="A105" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>62</v>
+      <c r="A106" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>123631</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>57519532</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>25226117</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>71496458</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>156414</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>44607530</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>176870</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B113" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>58</v>
+      <c r="E113" s="1" t="n">
+        <v>24739943</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B114" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>58</v>
+      <c r="D114" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>208908</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B115" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>58</v>
+      <c r="D115" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>216467</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B116" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>58</v>
+      <c r="D116" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B117" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>58</v>
+      <c r="D117" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>123631</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B118" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>58</v>
+      <c r="D118" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>57519532</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>58</v>
+      <c r="E119" s="1" t="n">
+        <v>25226117</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>58</v>
+      <c r="E120" s="1" t="n">
+        <v>71496458</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B121" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>58</v>
+      <c r="D121" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>156414</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B122" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>58</v>
+      <c r="E122" s="1" t="n">
+        <v>44607530</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B123" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>58</v>
+      <c r="D123" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>176870</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>24739943</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>208908</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>216467</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>123631</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>57519532</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>25226117</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>71496458</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>156414</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>44607530</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>176870</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>24739943</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B136" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>58</v>
+      <c r="E136" s="1" t="n">
+        <v>208908</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>554</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>216467</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>123631</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>57519532</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>25226117</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>71496458</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>156414</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>44607530</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>176870</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>553</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>72</v>
+      <c r="A146" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>57519523</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>53401057</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>53398697</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>180022</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>76</v>
+      <c r="A149" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>53770298</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>53770298</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>53770298</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>53770298</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>189584</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>84</v>
+      <c r="A154" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>53235510</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>51039095</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>86</v>
+      <c r="A156" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>4261</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>53437714</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>90</v>
+      <c r="A158" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>9865515</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>57519507</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>92</v>
+      <c r="A160" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>56603532</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>4611</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>94</v>
+      <c r="A162" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>95</v>
+      <c r="A163" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>5311</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>4261</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>53437714</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>9865515</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>57519507</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>56603532</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>4611</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>5311</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>97</v>
+      <c r="A172" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>71433510</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>53340666</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>103</v>
+      <c r="A175" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>25124816</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>466397</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>25182616</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>11640390</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>1091644</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" s="1" t="n">
+        <v>11476171</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>25124816</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>466397</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <v>25182616</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>11640390</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <v>1091644</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <v>11476171</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E185" s="1" t="n">
+        <v>25124816</v>
+      </c>
+      <c r="F185" s="1" t="n">
+        <v>466397</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E186" s="1" t="n">
+        <v>25182616</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>11640390</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <v>1091644</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <v>11476171</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>25124816</v>
+      </c>
+      <c r="F190" s="1" t="n">
+        <v>466397</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="E191" s="1" t="n">
+        <v>25182616</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E192" s="1" t="n">
+        <v>11640390</v>
+      </c>
+      <c r="F192" s="1" t="n">
+        <v>1091644</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E193" s="1" t="n">
+        <v>11476171</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>112</v>
+        <v>143</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E194" s="1" t="n">
+        <v>25062766</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>112</v>
+        <v>143</v>
+      </c>
+      <c r="E195" s="1" t="n">
+        <v>25126798</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <v>16722836</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <v>126565</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>117</v>
+      <c r="A198" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <v>46861588</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>118</v>
+      <c r="A199" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <v>6851740</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <v>23725625</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>123</v>
+      <c r="A201" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <v>9931954</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>124</v>
+      <c r="A202" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>11960529</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>9796068</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E204" s="1" t="n">
+        <v>23725625</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <v>9931954</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E206" s="1" t="n">
+        <v>11960529</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E207" s="1" t="n">
+        <v>9796068</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E208" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E209" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E210" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E211" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E212" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F212" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E213" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E214" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E215" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>137</v>
+      <c r="A216" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E217" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E218" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E219" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E220" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E221" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F221" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E222" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E223" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E224" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E225" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E226" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E227" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E228" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E229" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E230" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F230" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E231" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E232" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E233" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E234" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E235" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E236" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E237" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E238" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E239" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F239" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E240" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E241" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E242" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E243" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E245" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F248" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E250" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E251" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E252" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E253" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E254" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E255" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E256" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E257" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F257" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E258" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E259" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E260" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E261" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E262" s="1" t="n">
+        <v>56649450</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E263" s="1" t="n">
+        <v>42636535</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E264" s="1" t="n">
+        <v>16654980</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>52914932</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E266" s="1" t="n">
+        <v>9884685</v>
+      </c>
+      <c r="F266" s="1" t="n">
+        <v>538346</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E267" s="1" t="n">
+        <v>11647372</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <v>17755052</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <v>71317162</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <v>52914946</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
-        <v>144</v>
+      <c r="A271" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E272" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E274" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E275" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E276" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E278" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E279" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E280" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E281" s="1" t="n">
+        <v>44137675</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="E282" s="1" t="n">
+        <v>9907093</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
-        <v>148</v>
+      <c r="A283" s="0" t="s">
+        <v>188</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E283" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E284" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E285" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E286" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E287" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>150</v>
+        <v>190</v>
+      </c>
+      <c r="E288" s="1" t="n">
+        <v>11625818</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E289" s="1" t="n">
+        <v>56965900</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
-        <v>153</v>
+      <c r="A290" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E290" s="1" t="n">
+        <v>6852167</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E291" s="1" t="n">
+        <v>24906273</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E292" s="1" t="n">
+        <v>56965900</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E293" s="1" t="n">
+        <v>6852167</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E294" s="1" t="n">
+        <v>24906273</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E295" s="1" t="n">
+        <v>56965900</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E296" s="1" t="n">
+        <v>6852167</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E297" s="1" t="n">
+        <v>24906273</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E298" s="1" t="n">
+        <v>56965900</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E299" s="1" t="n">
+        <v>6852167</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
+      </c>
+      <c r="E300" s="1" t="n">
+        <v>24906273</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
-        <v>155</v>
+      <c r="A301" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>156</v>
+        <v>196</v>
+      </c>
+      <c r="E301" s="1" t="n">
+        <v>24795070</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="s">
-        <v>157</v>
+      <c r="A302" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
+      </c>
+      <c r="E302" s="1" t="n">
+        <v>10200390</v>
+      </c>
+      <c r="F302" s="1" t="n">
+        <v>1190711</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>158</v>
+        <v>198</v>
+      </c>
+      <c r="E303" s="1" t="n">
+        <v>11213558</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>160</v>
+      <c r="A304" s="0" t="s">
+        <v>200</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>162</v>
+        <v>202</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E304" s="1" t="n">
+        <v>23625762</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E305" s="1" t="n">
+        <v>60838</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
-        <v>165</v>
+      <c r="A306" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E306" s="1" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E307" s="1" t="n">
+        <v>60838</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E308" s="1" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E309" s="1" t="n">
+        <v>60838</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E310" s="1" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E311" s="1" t="n">
+        <v>31703</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E312" s="1" t="n">
+        <v>41867</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E313" s="1" t="n">
+        <v>36462</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E314" s="1" t="n">
+        <v>115150</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E315" s="1" t="n">
+        <v>31703</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E316" s="1" t="n">
+        <v>41867</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E317" s="1" t="n">
+        <v>36462</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E318" s="1" t="n">
+        <v>115150</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
-        <v>32</v>
+      <c r="A319" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E319" s="1" t="n">
+        <v>31703</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>53</v>
+      <c r="A320" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E320" s="1" t="n">
+        <v>41867</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E321" s="1" t="n">
+        <v>36462</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E322" s="1" t="n">
+        <v>115150</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E323" s="1" t="n">
+        <v>31703</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E324" s="1" t="n">
+        <v>41867</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E325" s="1" t="n">
+        <v>36462</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="E326" s="1" t="n">
+        <v>115150</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>172</v>
+      <c r="A327" s="0" t="s">
+        <v>218</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E327" s="1" t="n">
+        <v>5311497</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>175</v>
+        <v>222</v>
+      </c>
+      <c r="E328" s="1" t="n">
+        <v>24856436</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
